--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="425">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/StructureDefinition/cqgc-analysis-task</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>cqgc-analysis-task</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>cqgc analysis task</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-08-14T12:07:27-04:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Ferlab.bio</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -132,9 +235,6 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Task</t>
   </si>
   <si>
     <t/>
@@ -1385,9 +1485,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AM58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1437,6438 +1698,6438 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -445,6 +445,16 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>sequencing-experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/sequencing-experiment}
+</t>
+  </si>
+  <si>
+    <t>Sequencing Experiment</t>
   </si>
   <si>
     <t>Task.modifierExtension</t>
@@ -1646,7 +1656,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1656,7 +1666,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2806,45 +2816,43 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>73</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2901,7 +2909,7 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>133</v>
@@ -2910,7 +2918,7 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2921,11 +2929,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2938,22 +2946,26 @@
         <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3013,16 +3025,16 @@
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -3030,7 +3042,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3041,7 +3053,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -3050,21 +3062,19 @@
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
@@ -3112,13 +3122,13 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -3127,13 +3137,13 @@
         <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3141,7 +3151,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3164,17 +3174,17 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -3223,7 +3233,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -3238,10 +3248,10 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3252,7 +3262,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3263,7 +3273,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -3275,16 +3285,18 @@
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>73</v>
       </c>
@@ -3332,13 +3344,13 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
@@ -3347,10 +3359,10 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3361,7 +3373,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3372,7 +3384,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -3384,18 +3396,16 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3443,13 +3453,13 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -3458,10 +3468,10 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
@@ -3472,7 +3482,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3483,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3495,19 +3505,17 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
@@ -3556,13 +3564,13 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -3571,10 +3579,10 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -3585,7 +3593,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3593,32 +3601,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3643,13 +3653,13 @@
         <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>73</v>
@@ -3667,13 +3677,13 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -3682,13 +3692,13 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3696,7 +3706,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3704,7 +3714,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>82</v>
@@ -3713,24 +3723,24 @@
         <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3754,13 +3764,13 @@
         <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>73</v>
@@ -3778,10 +3788,10 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -3793,13 +3803,13 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3807,7 +3817,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3830,18 +3840,18 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
@@ -3865,10 +3875,10 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
         <v>73</v>
@@ -3889,7 +3899,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3907,7 +3917,7 @@
         <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
@@ -3918,7 +3928,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3926,7 +3936,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
@@ -3941,18 +3951,18 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
@@ -3976,13 +3986,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -4000,10 +4010,10 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -4015,13 +4025,13 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>73</v>
@@ -4029,7 +4039,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4037,7 +4047,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>82</v>
@@ -4049,27 +4059,25 @@
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>73</v>
       </c>
@@ -4089,13 +4097,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4113,10 +4121,10 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -4128,13 +4136,13 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>73</v>
@@ -4142,7 +4150,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4162,25 +4170,27 @@
         <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>73</v>
       </c>
@@ -4200,13 +4210,13 @@
         <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>73</v>
@@ -4224,7 +4234,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -4239,13 +4249,13 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4253,7 +4263,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4276,15 +4286,17 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>73</v>
@@ -4309,13 +4321,13 @@
         <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>73</v>
@@ -4333,7 +4345,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4348,13 +4360,13 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
@@ -4362,7 +4374,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4385,20 +4397,16 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4464,10 +4472,10 @@
         <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4475,11 +4483,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4498,17 +4506,19 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4557,7 +4567,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4572,13 +4582,13 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>73</v>
@@ -4586,11 +4596,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4609,17 +4619,17 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4668,7 +4678,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4683,13 +4693,13 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>73</v>
@@ -4697,7 +4707,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4720,16 +4730,18 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4792,13 +4804,13 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>73</v>
@@ -4806,11 +4818,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4826,21 +4838,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4897,19 +4907,19 @@
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4917,11 +4927,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4937,20 +4947,20 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4999,7 +5009,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -5008,19 +5018,19 @@
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>73</v>
@@ -5028,11 +5038,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5051,17 +5061,17 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -5110,7 +5120,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5119,19 +5129,19 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>73</v>
@@ -5139,7 +5149,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5150,7 +5160,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5159,20 +5169,20 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5197,13 +5207,13 @@
         <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>73</v>
@@ -5221,13 +5231,13 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
@@ -5236,13 +5246,13 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>73</v>
@@ -5250,18 +5260,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -5270,22 +5280,20 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5310,13 +5318,13 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>73</v>
@@ -5334,13 +5342,13 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
@@ -5349,13 +5357,13 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>73</v>
@@ -5363,11 +5371,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5386,17 +5394,19 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5445,7 +5455,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5460,13 +5470,13 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>73</v>
@@ -5474,7 +5484,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5494,21 +5504,21 @@
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5532,10 +5542,10 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>73</v>
@@ -5556,7 +5566,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5571,21 +5581,21 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5608,16 +5618,16 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5643,10 +5653,10 @@
         <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>324</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>73</v>
@@ -5667,7 +5677,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5682,21 +5692,21 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5707,7 +5717,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5719,15 +5729,17 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -5776,13 +5788,13 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -5791,21 +5803,21 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5828,13 +5840,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5885,7 +5897,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5900,25 +5912,25 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5937,17 +5949,15 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5996,7 +6006,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6011,10 +6021,10 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -6025,18 +6035,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -6048,18 +6058,18 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>73</v>
       </c>
@@ -6107,13 +6117,13 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -6122,10 +6132,10 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -6136,7 +6146,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6159,16 +6169,18 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
       </c>
@@ -6216,7 +6228,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6228,13 +6240,13 @@
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -6245,18 +6257,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -6268,17 +6280,15 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6327,25 +6337,25 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6356,11 +6366,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6373,26 +6383,24 @@
         <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6440,7 +6448,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6458,7 +6466,7 @@
         <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6469,40 +6477,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>376</v>
+        <v>146</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
@@ -6551,25 +6561,25 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6580,7 +6590,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6603,19 +6613,17 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6664,7 +6672,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6682,7 +6690,7 @@
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6693,7 +6701,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6704,7 +6712,7 @@
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -6716,16 +6724,20 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6773,13 +6785,13 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -6791,7 +6803,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6802,11 +6814,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6825,18 +6837,16 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6884,7 +6894,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6902,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6913,18 +6923,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -6936,16 +6946,18 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6993,25 +7005,25 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
@@ -7022,18 +7034,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -7045,17 +7057,15 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7104,25 +7114,25 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -7133,11 +7143,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7150,26 +7160,24 @@
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7217,7 +7225,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7235,7 +7243,7 @@
         <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
@@ -7246,42 +7254,42 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>145</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>146</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7306,10 +7314,10 @@
         <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>73</v>
@@ -7330,25 +7338,25 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
@@ -7359,11 +7367,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7382,16 +7390,20 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7415,10 +7427,10 @@
         <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>73</v>
@@ -7439,7 +7451,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>82</v>
@@ -7457,7 +7469,7 @@
         <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
@@ -7468,7 +7480,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7476,10 +7488,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7491,7 +7503,7 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>410</v>
@@ -7500,9 +7512,7 @@
         <v>411</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7550,13 +7560,13 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -7568,7 +7578,7 @@
         <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
@@ -7579,7 +7589,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7590,7 +7600,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7602,16 +7612,18 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7659,25 +7671,25 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -7688,18 +7700,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -7711,17 +7723,15 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -7770,25 +7780,25 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7799,11 +7809,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7816,26 +7826,24 @@
         <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7883,7 +7891,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7901,7 +7909,7 @@
         <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
@@ -7912,40 +7920,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>419</v>
+        <v>146</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -7970,10 +7980,10 @@
         <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>73</v>
@@ -7994,25 +8004,25 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -8023,11 +8033,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8046,17 +8056,17 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>406</v>
+        <v>196</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -8081,10 +8091,10 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>73</v>
+        <v>423</v>
       </c>
       <c r="Y58" t="s" s="2">
         <v>73</v>
@@ -8105,7 +8115,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>82</v>
@@ -8123,17 +8133,128 @@
         <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM58">
+  <autoFilter ref="A1:AM59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8143,7 +8264,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -1668,37 +1668,37 @@
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -252,10 +252,6 @@
     <t>A task to be performed.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
-  </si>
-  <si>
     <t>Request, Event</t>
   </si>
   <si>
@@ -269,491 +265,495 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Task.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Task.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Task.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Task.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Task.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Task.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/workflow}
+</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>sequencing-experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/sequencing-experiment}
+</t>
+  </si>
+  <si>
+    <t>Sequencing Experiment</t>
+  </si>
+  <si>
+    <t>Task.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Task Instance Identifier</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition)
+</t>
+  </si>
+  <si>
+    <t>Formal definition of task</t>
+  </si>
+  <si>
+    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Task.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUrl</t>
+  </si>
+  <si>
+    <t>Task.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Composite task</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.description</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Task.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Task.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Task.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Task.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Task.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Task.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/workflow}
-</t>
-  </si>
-  <si>
-    <t>Workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>sequencing-experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/sequencing-experiment}
-</t>
-  </si>
-  <si>
-    <t>Sequencing Experiment</t>
-  </si>
-  <si>
-    <t>Task.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Task Instance Identifier</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Task.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
-</t>
-  </si>
-  <si>
-    <t>Formal definition of task</t>
-  </si>
-  <si>
-    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Task.instantiatesUri</t>
-  </si>
-  <si>
-    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUrl</t>
-  </si>
-  <si>
-    <t>Task.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Composite task</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Task.description</t>
   </si>
   <si>
     <t>Human-readable explanation of task</t>
@@ -1919,13 +1919,13 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1947,28 +1947,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2018,13 +2018,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2058,25 +2058,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2127,19 +2127,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2167,28 +2167,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2238,19 +2238,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2278,7 +2278,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -2290,16 +2290,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2325,43 +2325,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2378,18 +2378,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -2401,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2460,25 +2460,25 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -2489,11 +2489,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2512,16 +2512,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2571,7 +2571,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2589,7 +2589,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2623,13 +2623,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2668,17 +2668,17 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2690,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -2720,11 +2720,11 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2732,13 +2732,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2789,7 +2789,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2798,10 +2798,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
@@ -2831,11 +2831,11 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
       </c>
@@ -2843,13 +2843,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2900,7 +2900,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2909,10 +2909,10 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -2929,11 +2929,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2946,25 +2946,25 @@
         <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>73</v>
@@ -3013,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3025,13 +3025,13 @@
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>73</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3065,13 +3065,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3122,7 +3122,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -3134,16 +3134,16 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3162,29 +3162,29 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -3233,25 +3233,25 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3273,29 +3273,29 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -3344,25 +3344,25 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3393,16 +3393,16 @@
         <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3453,7 +3453,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3465,13 +3465,13 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3493,29 +3493,29 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
@@ -3564,25 +3564,25 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3613,22 +3613,22 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3677,7 +3677,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3689,13 +3689,13 @@
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3714,32 +3714,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="I19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3764,52 +3764,52 @@
         <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="X19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3828,28 +3828,28 @@
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3875,49 +3875,49 @@
         <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3939,29 +3939,29 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3986,49 +3986,49 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4047,31 +4047,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4097,52 +4097,52 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>73</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4161,7 +4161,7 @@
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -4173,89 +4173,89 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" t="s" s="2">
+      <c r="Q23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4274,28 +4274,28 @@
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4321,52 +4321,52 @@
         <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4385,19 +4385,19 @@
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>238</v>
@@ -4454,19 +4454,19 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4494,19 +4494,19 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>242</v>
@@ -4573,13 +4573,13 @@
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4588,7 +4588,7 @@
         <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>73</v>
@@ -4607,19 +4607,19 @@
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>249</v>
@@ -4684,13 +4684,13 @@
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>252</v>
@@ -4718,16 +4718,16 @@
         <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>256</v>
@@ -4795,13 +4795,13 @@
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>260</v>
@@ -4829,16 +4829,16 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>264</v>
@@ -4904,13 +4904,13 @@
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>267</v>
@@ -4938,7 +4938,7 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -5015,13 +5015,13 @@
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>277</v>
@@ -5049,16 +5049,16 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>272</v>
@@ -5126,13 +5126,13 @@
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5160,16 +5160,16 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>287</v>
@@ -5237,13 +5237,13 @@
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>291</v>
@@ -5283,7 +5283,7 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>295</v>
@@ -5318,7 +5318,7 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>298</v>
@@ -5354,7 +5354,7 @@
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>300</v>
@@ -5382,16 +5382,16 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>305</v>
@@ -5461,13 +5461,13 @@
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>310</v>
@@ -5495,16 +5495,16 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>313</v>
@@ -5572,13 +5572,13 @@
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>317</v>
@@ -5606,7 +5606,7 @@
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5618,7 +5618,7 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>321</v>
@@ -5653,7 +5653,7 @@
         <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>324</v>
@@ -5683,13 +5683,13 @@
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>325</v>
@@ -5717,7 +5717,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5729,7 +5729,7 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>321</v>
@@ -5794,13 +5794,13 @@
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>332</v>
@@ -5909,7 +5909,7 @@
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>338</v>
@@ -6018,7 +6018,7 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>345</v>
@@ -6129,7 +6129,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>353</v>
@@ -6157,7 +6157,7 @@
         <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -6234,13 +6234,13 @@
         <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>73</v>
@@ -6268,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -6280,7 +6280,7 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>362</v>
@@ -6343,7 +6343,7 @@
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6389,7 +6389,7 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>367</v>
@@ -6398,7 +6398,7 @@
         <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6460,7 +6460,7 @@
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>73</v>
@@ -6494,13 +6494,13 @@
         <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>372</v>
@@ -6509,10 +6509,10 @@
         <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
@@ -6573,13 +6573,13 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6601,7 +6601,7 @@
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6678,13 +6678,13 @@
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
@@ -6712,7 +6712,7 @@
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -6791,13 +6791,13 @@
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -6906,7 +6906,7 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
@@ -7017,7 +7017,7 @@
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
@@ -7045,7 +7045,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -7057,7 +7057,7 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>362</v>
@@ -7120,7 +7120,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7166,7 +7166,7 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>367</v>
@@ -7175,7 +7175,7 @@
         <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7237,7 +7237,7 @@
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7271,13 +7271,13 @@
         <v>73</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>372</v>
@@ -7286,10 +7286,10 @@
         <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7350,13 +7350,13 @@
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
@@ -7375,10 +7375,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -7390,7 +7390,7 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>403</v>
@@ -7427,7 +7427,7 @@
         <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>407</v>
@@ -7454,16 +7454,16 @@
         <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>73</v>
@@ -7488,10 +7488,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7563,16 +7563,16 @@
         <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>73</v>
@@ -7683,7 +7683,7 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -7711,7 +7711,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -7723,7 +7723,7 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>362</v>
@@ -7786,7 +7786,7 @@
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7832,7 +7832,7 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>367</v>
@@ -7841,7 +7841,7 @@
         <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7903,7 +7903,7 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7937,13 +7937,13 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>372</v>
@@ -7952,10 +7952,10 @@
         <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8016,13 +8016,13 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
@@ -8041,10 +8041,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -8056,7 +8056,7 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>420</v>
@@ -8091,7 +8091,7 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>423</v>
@@ -8118,16 +8118,16 @@
         <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>
@@ -8152,10 +8152,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>73</v>
@@ -8229,16 +8229,16 @@
         <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>73</v>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -118,126 +118,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1481,10 +1361,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,11 +1562,10 @@
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1697,6754 +1576,6632 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
+      <c r="AM1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>328</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>344</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>352</v>
+        <v>34</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>375</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>397</v>
+        <v>34</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>149</v>
+        <v>370</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>406</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>411</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>406</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN59">
+  <autoFilter ref="A1:AN58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8454,7 +8211,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>A task to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1695,13 +1699,13 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>34</v>
@@ -1712,10 +1716,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1726,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>34</v>
@@ -1735,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1797,13 +1801,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>34</v>
@@ -1826,10 +1830,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1840,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>34</v>
@@ -1849,16 +1853,16 @@
         <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1909,19 +1913,19 @@
         <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>34</v>
@@ -1938,10 +1942,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1952,28 +1956,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2023,19 +2027,19 @@
         <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>34</v>
@@ -2052,10 +2056,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2066,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>34</v>
@@ -2078,16 +2082,16 @@
         <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2113,13 +2117,13 @@
         <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>34</v>
@@ -2137,19 +2141,19 @@
         <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>34</v>
@@ -2166,21 +2170,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>34</v>
@@ -2192,16 +2196,16 @@
         <v>34</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2251,25 +2255,25 @@
         <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>34</v>
@@ -2280,14 +2284,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2306,16 +2310,16 @@
         <v>34</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2365,7 +2369,7 @@
         <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2383,7 +2387,7 @@
         <v>34</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>34</v>
@@ -2394,10 +2398,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2420,13 +2424,13 @@
         <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2465,17 +2469,17 @@
         <v>34</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2487,7 +2491,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>34</v>
@@ -2504,13 +2508,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>34</v>
@@ -2520,10 +2524,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>34</v>
@@ -2532,13 +2536,13 @@
         <v>34</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2589,7 +2593,7 @@
         <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2598,10 +2602,10 @@
         <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>34</v>
@@ -2618,13 +2622,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>34</v>
@@ -2634,10 +2638,10 @@
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>34</v>
@@ -2646,13 +2650,13 @@
         <v>34</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2703,7 +2707,7 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2712,10 +2716,10 @@
         <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>34</v>
@@ -2732,14 +2736,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2752,25 +2756,25 @@
         <v>34</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>34</v>
@@ -2819,7 +2823,7 @@
         <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2831,13 +2835,13 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>34</v>
@@ -2848,10 +2852,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2874,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2931,7 +2935,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -2943,16 +2947,16 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>34</v>
@@ -2960,10 +2964,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2974,7 +2978,7 @@
         <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>34</v>
@@ -2983,20 +2987,20 @@
         <v>34</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>34</v>
@@ -3045,25 +3049,25 @@
         <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>34</v>
@@ -3074,10 +3078,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3088,7 +3092,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>34</v>
@@ -3097,20 +3101,20 @@
         <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>34</v>
@@ -3159,25 +3163,25 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>34</v>
@@ -3188,10 +3192,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3211,16 +3215,16 @@
         <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3271,7 +3275,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3283,13 +3287,13 @@
         <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>34</v>
@@ -3300,10 +3304,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3314,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>34</v>
@@ -3323,20 +3327,20 @@
         <v>34</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>34</v>
@@ -3385,25 +3389,25 @@
         <v>34</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>34</v>
@@ -3414,10 +3418,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3437,22 +3441,22 @@
         <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>34</v>
@@ -3501,7 +3505,7 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3513,13 +3517,13 @@
         <v>34</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>34</v>
@@ -3530,10 +3534,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3541,32 +3545,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>34</v>
@@ -3591,13 +3595,13 @@
         <v>34</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>34</v>
@@ -3615,28 +3619,28 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>34</v>
@@ -3644,10 +3648,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3658,7 +3662,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>34</v>
@@ -3667,19 +3671,19 @@
         <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3705,10 +3709,10 @@
         <v>34</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>34</v>
@@ -3729,25 +3733,25 @@
         <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>34</v>
@@ -3758,10 +3762,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3772,7 +3776,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>34</v>
@@ -3781,20 +3785,20 @@
         <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>34</v>
@@ -3819,10 +3823,10 @@
         <v>34</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>34</v>
@@ -3843,25 +3847,25 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>34</v>
@@ -3872,10 +3876,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3883,10 +3887,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>34</v>
@@ -3895,19 +3899,19 @@
         <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3933,13 +3937,13 @@
         <v>34</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>34</v>
@@ -3957,28 +3961,28 @@
         <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>34</v>
@@ -3986,10 +3990,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4000,7 +4004,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>34</v>
@@ -4012,23 +4016,23 @@
         <v>34</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>34</v>
@@ -4049,13 +4053,13 @@
         <v>34</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>34</v>
@@ -4073,28 +4077,28 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>34</v>
@@ -4102,10 +4106,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4116,7 +4120,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>34</v>
@@ -4125,19 +4129,19 @@
         <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4163,13 +4167,13 @@
         <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>34</v>
@@ -4187,28 +4191,28 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>34</v>
@@ -4216,10 +4220,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4230,7 +4234,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>34</v>
@@ -4239,16 +4243,16 @@
         <v>34</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4299,25 +4303,25 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>34</v>
@@ -4328,10 +4332,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4342,7 +4346,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>34</v>
@@ -4351,22 +4355,22 @@
         <v>34</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>34</v>
@@ -4415,28 +4419,28 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>34</v>
@@ -4444,21 +4448,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>34</v>
@@ -4467,20 +4471,20 @@
         <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>34</v>
@@ -4529,28 +4533,28 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>34</v>
@@ -4558,10 +4562,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4572,7 +4576,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>34</v>
@@ -4581,20 +4585,20 @@
         <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>34</v>
@@ -4643,28 +4647,28 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>34</v>
@@ -4672,10 +4676,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4686,7 +4690,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>34</v>
@@ -4695,16 +4699,16 @@
         <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4755,28 +4759,28 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>34</v>
@@ -4784,21 +4788,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4810,17 +4814,17 @@
         <v>34</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>34</v>
@@ -4869,28 +4873,28 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>34</v>
@@ -4898,21 +4902,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -4921,20 +4925,20 @@
         <v>34</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>34</v>
@@ -4983,25 +4987,25 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>34</v>
@@ -5012,10 +5016,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5026,7 +5030,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>34</v>
@@ -5035,20 +5039,20 @@
         <v>34</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>34</v>
@@ -5097,28 +5101,28 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>34</v>
@@ -5126,10 +5130,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5152,17 +5156,17 @@
         <v>34</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -5187,13 +5191,13 @@
         <v>34</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>34</v>
@@ -5211,7 +5215,7 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5223,16 +5227,16 @@
         <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>34</v>
@@ -5240,21 +5244,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>34</v>
@@ -5263,22 +5267,22 @@
         <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>34</v>
@@ -5327,28 +5331,28 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>34</v>
@@ -5356,10 +5360,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5370,7 +5374,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>34</v>
@@ -5379,20 +5383,20 @@
         <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>34</v>
@@ -5441,28 +5445,28 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>34</v>
@@ -5470,10 +5474,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5484,7 +5488,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>34</v>
@@ -5496,16 +5500,16 @@
         <v>34</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5531,10 +5535,10 @@
         <v>34</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>34</v>
@@ -5555,39 +5559,39 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5598,7 +5602,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>34</v>
@@ -5610,16 +5614,16 @@
         <v>34</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5669,28 +5673,28 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>34</v>
@@ -5698,10 +5702,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5724,13 +5728,13 @@
         <v>34</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5781,7 +5785,7 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -5793,27 +5797,27 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5836,13 +5840,13 @@
         <v>34</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5893,7 +5897,7 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -5905,13 +5909,13 @@
         <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>34</v>
@@ -5922,14 +5926,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5948,16 +5952,16 @@
         <v>34</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6007,7 +6011,7 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6019,13 +6023,13 @@
         <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>34</v>
@@ -6036,10 +6040,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6050,7 +6054,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>34</v>
@@ -6062,17 +6066,17 @@
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>34</v>
@@ -6121,25 +6125,25 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>34</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6164,7 +6168,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>34</v>
@@ -6176,13 +6180,13 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6233,13 +6237,13 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>34</v>
@@ -6251,7 +6255,7 @@
         <v>34</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>34</v>
@@ -6262,14 +6266,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6288,16 +6292,16 @@
         <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6347,7 +6351,7 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6359,13 +6363,13 @@
         <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>34</v>
@@ -6376,14 +6380,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6396,25 +6400,25 @@
         <v>34</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>34</v>
@@ -6463,7 +6467,7 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6475,13 +6479,13 @@
         <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>34</v>
@@ -6492,10 +6496,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6506,7 +6510,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
@@ -6518,17 +6522,17 @@
         <v>34</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>34</v>
@@ -6577,25 +6581,25 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>34</v>
@@ -6606,10 +6610,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6620,7 +6624,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6632,19 +6636,19 @@
         <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>34</v>
@@ -6693,25 +6697,25 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>34</v>
@@ -6722,10 +6726,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6748,13 +6752,13 @@
         <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6805,7 +6809,7 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -6817,13 +6821,13 @@
         <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>34</v>
@@ -6834,14 +6838,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6860,17 +6864,17 @@
         <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>34</v>
@@ -6919,7 +6923,7 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -6931,13 +6935,13 @@
         <v>34</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>34</v>
@@ -6948,10 +6952,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6962,7 +6966,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>34</v>
@@ -6974,13 +6978,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7031,13 +7035,13 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>34</v>
@@ -7049,7 +7053,7 @@
         <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>34</v>
@@ -7060,14 +7064,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7086,16 +7090,16 @@
         <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7145,7 +7149,7 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7157,13 +7161,13 @@
         <v>34</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>34</v>
@@ -7174,14 +7178,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7194,25 +7198,25 @@
         <v>34</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>34</v>
@@ -7261,7 +7265,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7273,13 +7277,13 @@
         <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>34</v>
@@ -7290,21 +7294,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>34</v>
@@ -7316,19 +7320,19 @@
         <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>34</v>
@@ -7353,10 +7357,10 @@
         <v>34</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>34</v>
@@ -7377,25 +7381,25 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>34</v>
@@ -7406,10 +7410,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7417,10 +7421,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>34</v>
@@ -7432,13 +7436,13 @@
         <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7489,25 +7493,25 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>34</v>
@@ -7518,10 +7522,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7544,17 +7548,17 @@
         <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>34</v>
@@ -7603,7 +7607,7 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7615,13 +7619,13 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>34</v>
@@ -7632,10 +7636,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7646,7 +7650,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>34</v>
@@ -7658,13 +7662,13 @@
         <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7715,13 +7719,13 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>34</v>
@@ -7733,7 +7737,7 @@
         <v>34</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>34</v>
@@ -7744,14 +7748,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7770,16 +7774,16 @@
         <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7829,7 +7833,7 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -7841,13 +7845,13 @@
         <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>34</v>
@@ -7858,14 +7862,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7878,25 +7882,25 @@
         <v>34</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>34</v>
@@ -7945,7 +7949,7 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -7957,13 +7961,13 @@
         <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>34</v>
@@ -7974,21 +7978,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>34</v>
@@ -8000,17 +8004,17 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>34</v>
@@ -8035,10 +8039,10 @@
         <v>34</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>34</v>
@@ -8059,25 +8063,25 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>34</v>
@@ -8088,10 +8092,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8099,10 +8103,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>34</v>
@@ -8114,17 +8118,17 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>34</v>
@@ -8173,25 +8177,25 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>34</v>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1553,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1566,10 +1686,11 @@
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.80859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1580,6632 +1701,6754 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>34</v>
+      <c r="J1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>49</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Y23" t="s" s="2">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>34</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>34</v>
+        <v>358</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>34</v>
+        <v>376</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>149</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>387</v>
+        <v>150</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>374</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8215,7 +8458,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-analysis-task.xlsx
+++ b/ig/StructureDefinition-cqgc-analysis-task.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
